--- a/Sprint1/Sprint1.xlsx
+++ b/Sprint1/Sprint1.xlsx
@@ -1,43 +1,431 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+  <si>
+    <t>DSA SPRINT 1</t>
+  </si>
+  <si>
+    <t>Lecture names</t>
+  </si>
+  <si>
+    <t>Lecture links</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Reduce String</t>
+  </si>
+  <si>
+    <t>https://oj.masaischool.com/contest/6737/problems</t>
+  </si>
+  <si>
+    <t>Push, Pop and Top</t>
+  </si>
+  <si>
+    <t>Smaller Neighbour Element</t>
+  </si>
+  <si>
+    <t>Next Greater Element</t>
+  </si>
+  <si>
+    <t>Can you find the sum</t>
+  </si>
+  <si>
+    <t>Daily Temparature</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF495060"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,24 +433,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +835,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +1009,132 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="27.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="8.14285714285714" customWidth="1"/>
+    <col min="3" max="3" width="46.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="8.14285714285714" customWidth="1"/>
+    <col min="5" max="5" width="15.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Sprint1/Sprint1.xlsx
+++ b/Sprint1/Sprint1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kausik\1DSA\DSA301\DSA301-3rd-\Sprint1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381651DE-A020-4AD4-9EA7-AA4235E3B137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>DSA SPRINT 1</t>
   </si>
@@ -34,54 +28,57 @@
     <t>status</t>
   </si>
   <si>
+    <t>Easy - E</t>
+  </si>
+  <si>
     <t>Reduce String</t>
   </si>
   <si>
     <t>https://oj.masaischool.com/contest/6737/problems</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Medium - M</t>
+  </si>
+  <si>
     <t>Push, Pop and Top</t>
   </si>
   <si>
+    <t>Hard - H</t>
+  </si>
+  <si>
     <t>Smaller Neighbour Element</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Very Hard - VH</t>
+  </si>
+  <si>
     <t>Next Greater Element</t>
   </si>
   <si>
     <t>Can you find the sum</t>
   </si>
   <si>
+    <t>Nearest Greater Element</t>
+  </si>
+  <si>
+    <t>Nearest Smaller Element</t>
+  </si>
+  <si>
+    <t>Solve a financial problem</t>
+  </si>
+  <si>
     <t>Daily Temparature</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Easy - E</t>
-  </si>
-  <si>
-    <t>Medium - M</t>
-  </si>
-  <si>
-    <t>Hard - H</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Nearest Greater Element</t>
-  </si>
-  <si>
-    <t>Nearest Smaller Element</t>
-  </si>
-  <si>
-    <t>Solve a financial problem</t>
-  </si>
-  <si>
     <t>Strings with Parenthesis</t>
   </si>
   <si>
@@ -89,25 +86,51 @@
   </si>
   <si>
     <t>Use Side Lane</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Question names</t>
+  </si>
+  <si>
+    <t>Question links</t>
+  </si>
+  <si>
+    <t>Non Repetitive Substrings</t>
+  </si>
+  <si>
+    <t>https://oj.masaischool.com/contest/6789/problems</t>
+  </si>
+  <si>
+    <t>Sales by match</t>
+  </si>
+  <si>
+    <t>Possible Palindrome</t>
+  </si>
+  <si>
+    <t>Bishop Attack</t>
+  </si>
+  <si>
+    <t>Valid Stack Sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,27 +157,354 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -162,44 +512,333 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -457,209 +1096,291 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.1047619047619" customWidth="1"/>
+    <col min="4" max="4" width="46.8857142857143" customWidth="1"/>
+    <col min="5" max="5" width="8.1047619047619" customWidth="1"/>
+    <col min="6" max="6" width="15.1047619047619" customWidth="1"/>
+    <col min="7" max="7" width="9.1047619047619" customWidth="1"/>
+    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="3"/>
       <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="4" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="4" t="s">
+      <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="7" t="s">
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>5</v>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{E9B0B9F7-EFA4-40BF-8EA8-ADFAEF583C64}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{4785B6AF-DEE1-4DE9-B0E2-6789E9DCB59F}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{482277BE-795A-475D-BB0E-43DC8F7291B7}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{D015A75D-AF74-4889-B2D2-9F36849EC5E0}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{236F6D0D-4230-4040-9359-883F7191AF5A}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{E1113645-1658-4F1A-A8CA-CF2EF0E0DE4A}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{8412280D-9340-4E9F-A9B3-24F2365E6834}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{EE405E6E-7FC8-4067-8A7F-8B0E8799917A}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{7473A366-21B4-4561-95BE-6E4337F9A495}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{2689E06A-6042-4087-B070-71F0C4E59954}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{5F2B4811-671D-4AB3-ACEE-45358B62B94F}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{4C568F21-B320-4F24-827D-1BD2B7B4965A}"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D7" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D10" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D11" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D12" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D13" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D14" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D15" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D16" r:id="rId1" display="https://oj.masaischool.com/contest/6737/problems"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://oj.masaischool.com/contest/6789/problems"/>
+    <hyperlink ref="D23" r:id="rId2" display="https://oj.masaischool.com/contest/6789/problems"/>
+    <hyperlink ref="D24" r:id="rId2" display="https://oj.masaischool.com/contest/6789/problems"/>
+    <hyperlink ref="D25" r:id="rId2" display="https://oj.masaischool.com/contest/6789/problems"/>
+    <hyperlink ref="D26" r:id="rId2" display="https://oj.masaischool.com/contest/6789/problems"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Sprint1/Sprint1.xlsx
+++ b/Sprint1/Sprint1.xlsx
@@ -120,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,11 +175,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,35 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -250,14 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -266,6 +249,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -282,6 +281,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -290,21 +311,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,13 +326,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,169 +494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,19 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +568,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -604,157 +609,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -776,13 +783,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,7 +1110,7 @@
   <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1116,7 +1121,7 @@
     <col min="5" max="5" width="8.1047619047619" customWidth="1"/>
     <col min="6" max="6" width="15.1047619047619" customWidth="1"/>
     <col min="7" max="7" width="9.1047619047619" customWidth="1"/>
-    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -1220,7 +1225,7 @@
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="8"/>
@@ -1253,7 +1258,7 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1299,29 +1304,29 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" t="s">
+      <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -1329,10 +1334,10 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -1340,19 +1345,19 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="8" t="s">
